--- a/df_2/df_2_8.xlsx
+++ b/df_2/df_2_8.xlsx
@@ -668,392 +668,392 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.5388 %</t>
+          <t>0,5388</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.7999 %</t>
+          <t>0,7999</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.551 %</t>
+          <t>0,551</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.8434 %</t>
+          <t>0,8434</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.2443 %</t>
+          <t>1,2443</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9551 %</t>
+          <t>0,9551</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.1174 %</t>
+          <t>1,1174</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.0147 %</t>
+          <t>1,0147</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.3483 %</t>
+          <t>1,3483</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.3281 %</t>
+          <t>1,3281</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.3113 %</t>
+          <t>1,3113</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.3292 %</t>
+          <t>1,3292</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.424 %</t>
+          <t>1,424</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.3719 %</t>
+          <t>1,3719</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.1264 %</t>
+          <t>1,1264</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.9492 %</t>
+          <t>0,9492</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1.2069 %</t>
+          <t>1,2069</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.8886 %</t>
+          <t>0,8886</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.864 %</t>
+          <t>0,864</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.3427 %</t>
+          <t>1,3427</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.2687 %</t>
+          <t>1,2687</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1.2759 %</t>
+          <t>1,2759</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>1.2637 %</t>
+          <t>1,2637</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1.3126 %</t>
+          <t>1,3126</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>1.3199 %</t>
+          <t>1,3199</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1.3866 %</t>
+          <t>1,3866</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>1.0372 %</t>
+          <t>1,0372</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>1.0879 %</t>
+          <t>1,0879</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>1.6391 %</t>
+          <t>1,6391</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.8926 %</t>
+          <t>0,8926</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>1.0126 %</t>
+          <t>1,0126</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.9513 %</t>
+          <t>0,9513</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>1.2922 %</t>
+          <t>1,2922</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.5488 %</t>
+          <t>1,5488</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>2.0385 %</t>
+          <t>2,0385</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>1.7504 %</t>
+          <t>1,7504</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>1.6955 %</t>
+          <t>1,6955</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.9943 %</t>
+          <t>0,9943</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>1.2655 %</t>
+          <t>1,2655</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1.2046 %</t>
+          <t>1,2046</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>1.0931 %</t>
+          <t>1,0931</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>1.0727 %</t>
+          <t>1,0727</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>1.2329 %</t>
+          <t>1,2329</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.808 %</t>
+          <t>0,808</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>1.2044 %</t>
+          <t>1,2044</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.8557 %</t>
+          <t>0,8557</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.9567 %</t>
+          <t>0,9567</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.8875 %</t>
+          <t>0,8875</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>1.0812 %</t>
+          <t>1,0812</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>1.2056 %</t>
+          <t>1,2056</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>1.0219 %</t>
+          <t>1,0219</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.7749 %</t>
+          <t>0,7749</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.7469 %</t>
+          <t>0,7469</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.5183 %</t>
+          <t>0,5183</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.5091 %</t>
+          <t>0,5091</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.9605 %</t>
+          <t>0,9605</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1.0092 %</t>
+          <t>1,0092</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>1.3124 %</t>
+          <t>1,3124</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>1.1194 %</t>
+          <t>1,1194</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.9686 %</t>
+          <t>0,9686</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.7797 %</t>
+          <t>0,7797</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.8762 %</t>
+          <t>0,8762</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>1.1794 %</t>
+          <t>1,1794</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>1.0983 %</t>
+          <t>1,0983</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>1.0614 %</t>
+          <t>1,0614</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.863 %</t>
+          <t>0,863</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>1.0816 %</t>
+          <t>1,0816</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.8045 %</t>
+          <t>0,8045</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>1.0109 %</t>
+          <t>1,0109</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>1.0101 %</t>
+          <t>1,0101</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>0.8997 %</t>
+          <t>0,8997</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>1.1991 %</t>
+          <t>1,1991</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>1.5021 %</t>
+          <t>1,5021</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>1.0009 %</t>
+          <t>1,0009</t>
         </is>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
-          <t>1.1585 %</t>
+          <t>1,1585</t>
         </is>
       </c>
       <c r="BY2" t="inlineStr">
         <is>
-          <t>1.3337 %</t>
+          <t>1,3337</t>
         </is>
       </c>
       <c r="BZ2" t="inlineStr">
         <is>
-          <t>1.4158 %</t>
+          <t>1,4158</t>
         </is>
       </c>
       <c r="CA2" t="inlineStr">
         <is>
-          <t>0.7663 %</t>
+          <t>0,7663</t>
         </is>
       </c>
     </row>
@@ -1065,232 +1065,232 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.4446 %</t>
+          <t>1,4446</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5023 %</t>
+          <t>0,5023</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.0745 %</t>
+          <t>1,0745</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.641 %</t>
+          <t>0,641</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.3562 %</t>
+          <t>0,3562</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4559 %</t>
+          <t>0,4559</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.77 %</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.2288 %</t>
+          <t>1,2288</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.2505 %</t>
+          <t>1,2505</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.7624 %</t>
+          <t>0,7624</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.3894 %</t>
+          <t>1,3894</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.9173 %</t>
+          <t>0,9173</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1.0667 %</t>
+          <t>1,0667</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.4647 %</t>
+          <t>1,4647</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.3096 %</t>
+          <t>1,3096</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.3148 %</t>
+          <t>1,3148</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1.5349 %</t>
+          <t>1,5349</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.7843 %</t>
+          <t>1,7843</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.8691 %</t>
+          <t>1,8691</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.8656 %</t>
+          <t>1,8656</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1.5254 %</t>
+          <t>1,5254</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1.8847 %</t>
+          <t>1,8847</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1.7946 %</t>
+          <t>1,7946</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1.7172 %</t>
+          <t>1,7172</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1.7852 %</t>
+          <t>1,7852</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2.2092 %</t>
+          <t>2,2092</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2.3526 %</t>
+          <t>2,3526</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2.5441 %</t>
+          <t>2,5441</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2.0971 %</t>
+          <t>2,0971</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1.6373 %</t>
+          <t>1,6373</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1.259 %</t>
+          <t>1,259</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.9467 %</t>
+          <t>0,9467</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1.0703 %</t>
+          <t>1,0703</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.9293 %</t>
+          <t>0,9293</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.9006 %</t>
+          <t>0,9006</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.817 %</t>
+          <t>0,817</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.5723 %</t>
+          <t>0,5723</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.5993 %</t>
+          <t>0,5993</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.4649 %</t>
+          <t>0,4649</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.6518 %</t>
+          <t>0,6518</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.5603 %</t>
+          <t>0,5603</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.368 %</t>
+          <t>0,368</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.4279 %</t>
+          <t>0,4279</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.455 %</t>
+          <t>0,455</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.4703 %</t>
+          <t>0,4703</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>1.0114 %</t>
+          <t>1,0114</t>
         </is>
       </c>
     </row>
@@ -1302,252 +1302,252 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.8129 %</t>
+          <t>3,8129</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.6084 %</t>
+          <t>2,6084</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.3206 %</t>
+          <t>2,3206</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.4344 %</t>
+          <t>2,4344</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.5636 %</t>
+          <t>2,5636</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.6483 %</t>
+          <t>2,6483</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.7417 %</t>
+          <t>2,7417</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2.8812 %</t>
+          <t>2,8812</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2.4842 %</t>
+          <t>2,4842</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2.6764 %</t>
+          <t>2,6764</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3.5536 %</t>
+          <t>3,5536</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3.8257 %</t>
+          <t>3,8257</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>5.095 %</t>
+          <t>5,095</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>3.455 %</t>
+          <t>3,455</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2.3876 %</t>
+          <t>2,3876</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2.3763 %</t>
+          <t>2,3763</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2.1294 %</t>
+          <t>2,1294</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2.3149 %</t>
+          <t>2,3149</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.9607 %</t>
+          <t>1,9607</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.8974 %</t>
+          <t>1,8974</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1.5657 %</t>
+          <t>1,5657</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1.4784 %</t>
+          <t>1,4784</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1.1929 %</t>
+          <t>1,1929</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1.0257 %</t>
+          <t>1,0257</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.7375 %</t>
+          <t>0,7375</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.7492 %</t>
+          <t>0,7492</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.5354 %</t>
+          <t>0,5354</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.5987 %</t>
+          <t>0,5987</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.6319 %</t>
+          <t>0,6319</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.783 %</t>
+          <t>0,783</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.5585 %</t>
+          <t>0,5585</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.4348 %</t>
+          <t>0,4348</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.4571 %</t>
+          <t>0,4571</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.4969 %</t>
+          <t>0,4969</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.5914 %</t>
+          <t>0,5914</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.6697 %</t>
+          <t>0,6697</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.7572 %</t>
+          <t>0,7572</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.7029 %</t>
+          <t>0,7029</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.6948 %</t>
+          <t>0,6948</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.6152 %</t>
+          <t>0,6152</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.632 %</t>
+          <t>0,632</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.7887 %</t>
+          <t>0,7887</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.7328 %</t>
+          <t>0,7328</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.6247 %</t>
+          <t>0,6247</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>0.9293 %</t>
+          <t>0,9293</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>1.3792 %</t>
+          <t>1,3792</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>1.4137 %</t>
+          <t>1,4137</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>2.5125 %</t>
+          <t>2,5125</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>2.8089 %</t>
+          <t>2,8089</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1.8363 %</t>
+          <t>1,8363</t>
         </is>
       </c>
     </row>
